--- a/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7CC7D2-7AE8-4D24-A49B-1D8FF4C3575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="666" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="666" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Ver-Construção1" sheetId="3" r:id="rId5"/>
     <sheet name="Ver-Transição1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -206,12 +205,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -323,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,12 +374,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -544,12 +543,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -578,7 +577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="E4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -694,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="118">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1061,12 +1060,18 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Parcialmente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1197,7 +1202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1483,6 +1494,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,12 +1551,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1570,7 +1588,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1646,7 +1664,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.65217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2612,7 +2630,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2621,22 +2639,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2722,7 +2740,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2734,13 +2752,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2832,7 +2850,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2856,13 +2874,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2951,22 +2969,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7326,24 +7344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" ht="18.75">
+      <c r="A1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -7366,9 +7384,9 @@
       <c r="A4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20" t="e">
+      <c r="B4" s="20">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7402,23 +7420,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" customWidth="1"/>
-    <col min="16" max="16" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7476,21 +7494,21 @@
       <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="24" t="e">
+      <c r="O2" s="24">
         <f>('Ver-Elaboração1'!$G$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P2" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="P2" s="24">
         <f>('Ver-Elaboração1'!$H$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q2" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="24">
         <f>('Ver-Elaboração1'!$I$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R2" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="R2" s="24">
         <f>('Ver-Elaboração1'!$J$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7516,21 +7534,21 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="24" t="e">
+      <c r="O3" s="24">
         <f>('Ver-Elaboração1'!$G$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="P3" s="24">
         <f>('Ver-Elaboração1'!$H$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="24">
         <f>('Ver-Elaboração1'!$I$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R3" s="24">
         <f>('Ver-Elaboração1'!$J$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7556,21 +7574,21 @@
       <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="24" t="e">
+      <c r="O4" s="24">
         <f>('Ver-Elaboração1'!$G$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="24" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="P4" s="24">
         <f>('Ver-Elaboração1'!$H$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="24">
         <f>('Ver-Elaboração1'!$I$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R4" s="24">
         <f>('Ver-Elaboração1'!$J$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -7596,21 +7614,21 @@
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="24" t="e">
+      <c r="O5" s="24">
         <f>('Ver-Elaboração1'!$G$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24">
         <f>('Ver-Elaboração1'!$H$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24">
         <f>('Ver-Elaboração1'!$I$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
         <f>('Ver-Elaboração1'!$J$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -7676,21 +7694,21 @@
       <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="24" t="e">
+      <c r="O7" s="24">
         <f>('Ver-Elaboração1'!$G$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="24" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="P7" s="24">
         <f>('Ver-Elaboração1'!$H$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="24" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="24">
         <f>('Ver-Elaboração1'!$I$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R7" s="24">
         <f>('Ver-Elaboração1'!$J$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7756,21 +7774,21 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="24" t="e">
+      <c r="O9" s="24">
         <f>('Ver-Elaboração1'!$G$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="24" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="P9" s="24">
         <f>('Ver-Elaboração1'!$H$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="24" t="e">
+        <v>0.2</v>
+      </c>
+      <c r="Q9" s="24">
         <f>('Ver-Elaboração1'!$I$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R9" s="24">
         <f>('Ver-Elaboração1'!$J$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>#DIV/0!</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7796,21 +7814,21 @@
       <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="24" t="e">
+      <c r="O10" s="24">
         <f>('Ver-Elaboração1'!$G$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" s="24" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P10" s="24">
         <f>('Ver-Elaboração1'!$H$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
         <f>('Ver-Elaboração1'!$I$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="24" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R10" s="24">
         <f>('Ver-Elaboração1'!$J$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7836,21 +7854,21 @@
       <c r="N11" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="24" t="e">
+      <c r="O11" s="24">
         <f>('Ver-Elaboração1'!$G$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="24" t="e">
+        <v>1</v>
+      </c>
+      <c r="P11" s="24">
         <f>('Ver-Elaboração1'!$H$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
         <f>('Ver-Elaboração1'!$I$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="R11" s="24">
         <f>('Ver-Elaboração1'!$J$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7876,21 +7894,21 @@
       <c r="N12" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="24" t="e">
+      <c r="O12" s="24">
         <f>('Ver-Elaboração1'!$G$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="24" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="24">
         <f>('Ver-Elaboração1'!$H$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="24" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
         <f>('Ver-Elaboração1'!$I$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="24" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="24">
         <f>('Ver-Elaboração1'!$J$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -8440,65 +8458,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="84" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D41)-COUNTIF(D5:D41,"NA"))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5">
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -8518,8 +8536,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.5">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
@@ -8546,8 +8564,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
-      <c r="A6" s="38"/>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="40"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -8561,7 +8579,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="9"/>
@@ -8589,7 +8607,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="30">
         <v>2</v>
       </c>
@@ -8602,8 +8620,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="14.5">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -8616,8 +8634,8 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="14.5">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -8630,8 +8648,8 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="14.5">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -8645,7 +8663,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="5">
         <v>6</v>
       </c>
@@ -8658,8 +8676,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>3</v>
@@ -8684,8 +8702,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="36"/>
       <c r="B14" s="29">
         <v>7</v>
       </c>
@@ -8698,8 +8716,8 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A15" s="36"/>
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -8712,8 +8730,8 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -8726,8 +8744,8 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A17" s="36"/>
       <c r="B17" s="29">
         <v>10</v>
       </c>
@@ -8740,8 +8758,8 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="14.5">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="15">
+      <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -8754,8 +8772,8 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.5">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="36"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
         <v>97</v>
@@ -8780,12 +8798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="34"/>
-      <c r="B20" s="49">
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" s="36"/>
+      <c r="B20" s="32">
         <v>12</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="31" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8794,12 +8812,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="29">
-      <c r="A21" s="34"/>
-      <c r="B21" s="49">
+    <row r="21" spans="1:10" ht="30">
+      <c r="A21" s="36"/>
+      <c r="B21" s="32">
         <v>13</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="31" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -8808,8 +8826,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.5">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="36"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
         <v>4</v>
@@ -8834,12 +8852,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="29">
-      <c r="A23" s="34"/>
-      <c r="B23" s="49">
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" s="36"/>
+      <c r="B23" s="32">
         <v>14</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -8848,8 +8866,8 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="14.5">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -8862,8 +8880,8 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="14.5">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="36"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
         <v>36</v>
@@ -8888,8 +8906,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:10" ht="30">
+      <c r="A26" s="36"/>
       <c r="B26" s="29">
         <v>16</v>
       </c>
@@ -8902,8 +8920,8 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>17</v>
       </c>
@@ -8916,8 +8934,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.5">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
         <v>13</v>
@@ -8942,12 +8960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="29">
-      <c r="A29" s="34"/>
-      <c r="B29" s="49">
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="36"/>
+      <c r="B29" s="32">
         <v>21</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="31" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8956,8 +8974,8 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="14.5">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="36"/>
       <c r="B30" s="5">
         <v>22</v>
       </c>
@@ -8970,8 +8988,8 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="14.5">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="36"/>
       <c r="B31" s="5">
         <v>23</v>
       </c>
@@ -8984,8 +9002,8 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.5">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="36"/>
       <c r="B32" s="5">
         <v>24</v>
       </c>
@@ -8998,8 +9016,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="36"/>
       <c r="B33" s="5">
         <v>25</v>
       </c>
@@ -9012,8 +9030,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="29">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:10" ht="30">
+      <c r="A34" s="36"/>
       <c r="B34" s="5">
         <v>26</v>
       </c>
@@ -9025,8 +9043,8 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="29">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:10" ht="30">
+      <c r="A35" s="36"/>
       <c r="B35" s="5">
         <v>27</v>
       </c>
@@ -9039,8 +9057,8 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="14.5">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:10" ht="15">
+      <c r="A36" s="36"/>
       <c r="B36" s="5">
         <v>28</v>
       </c>
@@ -9054,7 +9072,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="9"/>
@@ -9081,8 +9099,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="29">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:10" ht="30">
+      <c r="A38" s="35"/>
       <c r="B38" s="29">
         <v>30</v>
       </c>
@@ -9095,12 +9113,12 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="49">
+    <row r="39" spans="1:10" ht="30">
+      <c r="A39" s="35"/>
+      <c r="B39" s="32">
         <v>31</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="31" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -9109,12 +9127,12 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="49">
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="35"/>
+      <c r="B40" s="32">
         <v>32</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="31" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -9123,8 +9141,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="29">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:10" ht="30">
+      <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
@@ -9150,7 +9168,7 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9161,62 +9179,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="21" t="e">
+      <c r="E2" s="45"/>
+      <c r="F2" s="21">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D42)-COUNTIF(D5:D42,"NA"))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="36" t="s">
+        <v>0.65217391304347827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5">
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9237,7 +9255,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -9248,15 +9266,17 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6">
@@ -9269,15 +9289,15 @@
       </c>
       <c r="I6">
         <f>COUNTIF(D6,"Não")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <f>COUNTIF(D6,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.5">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -9286,15 +9306,17 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A8" s="34"/>
-      <c r="B8" s="5">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A8" s="36"/>
+      <c r="B8" s="50">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8">
@@ -9303,7 +9325,7 @@
       </c>
       <c r="H8">
         <f>COUNTIF(D8,"Parcialmente")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f>COUNTIF(D8,"Não")</f>
@@ -9314,15 +9336,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A9" s="36"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9"/>
@@ -9330,8 +9354,8 @@
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="14.5">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" s="36"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>97</v>
@@ -9340,20 +9364,22 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="29">
-      <c r="A11" s="34"/>
-      <c r="B11" s="22">
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="36"/>
+      <c r="B11" s="29">
         <v>4</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11">
         <f>COUNTIF(D11:D14,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <f>COUNTIF(D11:D14,"Parcialmente")</f>
@@ -9365,47 +9391,53 @@
       </c>
       <c r="J11">
         <f>COUNTIF(D11:D14,"NA")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29">
-      <c r="A12" s="34"/>
-      <c r="B12" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="36"/>
+      <c r="B12" s="29">
         <v>5</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="36"/>
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="29">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:10" ht="30">
+      <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="14.5">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" s="36"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>4</v>
@@ -9414,15 +9446,17 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16">
@@ -9439,11 +9473,11 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D16,"NA")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9"/>
@@ -9454,24 +9488,26 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="29">
-      <c r="A18" s="34"/>
-      <c r="B18" s="5">
+    <row r="18" spans="1:10" ht="30">
+      <c r="A18" s="36"/>
+      <c r="B18" s="50">
         <v>9</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18">
         <f>COUNTIF(D18:D21,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <f>COUNTIF(D18:D21,"Parcialmente")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <f>COUNTIF(D18:D21,"Não")</f>
@@ -9479,47 +9515,53 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D18:D21,"NA")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" s="36"/>
+      <c r="B19" s="50">
         <v>10</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="52" t="s">
+        <v>117</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="29">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="36"/>
       <c r="B21" s="5">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.5">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9"/>
@@ -9530,24 +9572,26 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="29">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:10" ht="30">
+      <c r="A23" s="36"/>
       <c r="B23" s="5">
         <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23">
         <f>COUNTIF(D23:D27,"Sim")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <f>COUNTIF(D23:D27,"Parcialmente")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <f>COUNTIF(D23:D27,"Não")</f>
@@ -9555,59 +9599,67 @@
       </c>
       <c r="J23">
         <f>COUNTIF(D23:D27,"NA")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="29">
-      <c r="A24" s="34"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
+      <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="29">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:10" ht="30">
+      <c r="A25" s="36"/>
       <c r="B25" s="5">
         <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.5">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="5">
         <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.5">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="9"/>
@@ -9618,20 +9670,22 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="14.5">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="46"/>
       <c r="B29" s="5">
         <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29">
         <f>COUNTIF(D29:D34,"Sim")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <f>COUNTIF(D29:D34,"Parcialmente")</f>
@@ -9639,75 +9693,85 @@
       </c>
       <c r="I29">
         <f>COUNTIF(D29:D34,"Não")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <f>COUNTIF(D29:D34,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.5">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="46"/>
       <c r="B30" s="5">
         <v>24</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="29">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.5">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>27</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>28</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="9"/>
@@ -9718,20 +9782,22 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="29">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:10" ht="30">
+      <c r="A36" s="35"/>
       <c r="B36" s="5">
         <v>29</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36">
         <f>COUNTIF(D36:D38,"Sim")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36">
         <f>COUNTIF(D36:D38,"Parcialmente")</f>
@@ -9746,32 +9812,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.5">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="29">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:10" ht="30">
+      <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="35"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
         <v>15</v>
@@ -9780,20 +9850,22 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="35"/>
       <c r="B40" s="5">
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40">
         <f>COUNTIF(D40:D41,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <f>COUNTIF(D40:D41,"Parcialmente")</f>
@@ -9801,22 +9873,24 @@
       </c>
       <c r="I40">
         <f>COUNTIF(D40:D41,"Não")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <f>COUNTIF(D40:D41,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.5">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
@@ -9834,10 +9908,10 @@
     <mergeCell ref="A5:A16"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9847,62 +9921,62 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
-    <col min="7" max="10" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="e">
         <f>COUNTIF(D5:D42,"Sim")/(COUNTA(D5:D41)-COUNTIF(D5:D41,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5">
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9923,7 +9997,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -9934,8 +10008,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -9962,8 +10036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.5">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -9972,8 +10046,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A8" s="36"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -10000,8 +10074,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.5">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>97</v>
@@ -10010,8 +10084,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="29">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -10038,8 +10112,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -10051,7 +10125,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -10062,8 +10136,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
@@ -10072,8 +10146,8 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -10101,7 +10175,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="9"/>
@@ -10112,8 +10186,8 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -10140,8 +10214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.5">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:10" ht="15">
+      <c r="A17" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="9"/>
@@ -10152,8 +10226,8 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.5">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:10" ht="15">
+      <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -10180,8 +10254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="29">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:10" ht="30">
+      <c r="A19" s="36"/>
       <c r="B19" s="5">
         <v>13</v>
       </c>
@@ -10192,8 +10266,8 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>14</v>
       </c>
@@ -10204,8 +10278,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.5">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="36"/>
       <c r="B21" s="5">
         <v>15</v>
       </c>
@@ -10216,8 +10290,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.5">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="36"/>
       <c r="B22" s="5">
         <v>16</v>
       </c>
@@ -10228,8 +10302,8 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="14.5">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
@@ -10240,8 +10314,8 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="29">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:10" ht="30">
+      <c r="A24" s="36"/>
       <c r="B24" s="22">
         <v>17</v>
       </c>
@@ -10268,8 +10342,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="29">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:10" ht="30">
+      <c r="A25" s="36"/>
       <c r="B25" s="5">
         <v>18</v>
       </c>
@@ -10280,8 +10354,8 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.5">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="36"/>
       <c r="B26" s="5">
         <v>19</v>
       </c>
@@ -10292,8 +10366,8 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>21</v>
       </c>
@@ -10304,8 +10378,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.5">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="5">
         <v>22</v>
       </c>
@@ -10316,8 +10390,8 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="14.5">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="9"/>
@@ -10328,8 +10402,8 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="14.5">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="46"/>
       <c r="B30" s="5">
         <v>24</v>
       </c>
@@ -10356,8 +10430,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="29">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:10" ht="30">
+      <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -10368,8 +10442,8 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.5">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:10" ht="15">
+      <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -10380,8 +10454,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -10392,8 +10466,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -10405,7 +10479,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="9"/>
@@ -10416,8 +10490,8 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="29">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:10" ht="30">
+      <c r="A36" s="35"/>
       <c r="B36" s="5">
         <v>30</v>
       </c>
@@ -10444,8 +10518,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.5">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:10" ht="15">
+      <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>31</v>
       </c>
@@ -10456,8 +10530,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="29">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:10" ht="30">
+      <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>32</v>
       </c>
@@ -10468,8 +10542,8 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:10" ht="15">
+      <c r="A39" s="35"/>
       <c r="B39" s="5"/>
       <c r="C39" s="8" t="s">
         <v>105</v>
@@ -10478,8 +10552,8 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="35"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
         <v>15</v>
@@ -10488,8 +10562,8 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
@@ -10516,8 +10590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.5">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="35"/>
       <c r="B42" s="5">
         <v>34</v>
       </c>
@@ -10528,53 +10602,53 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="51" spans="2:3" ht="14.5">
+    <row r="51" spans="2:3" ht="15">
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:3" ht="14.5">
+    <row r="52" spans="2:3" ht="15">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.5">
+    <row r="53" spans="2:3" ht="15">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.5">
+    <row r="54" spans="2:3" ht="15">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.5">
+    <row r="55" spans="2:3" ht="15">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.5">
+    <row r="56" spans="2:3" ht="15">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.5">
+    <row r="57" spans="2:3" ht="15">
       <c r="B57"/>
       <c r="C57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10584,62 +10658,62 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="21" t="e">
         <f>COUNTIF(D5:D43,"Sim")/(COUNTA(D5:D43)-COUNTIF(D5:D43,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.5">
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -10660,7 +10734,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -10671,8 +10745,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.5">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -10699,8 +10773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.5">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -10709,8 +10783,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A8" s="36"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -10737,8 +10811,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.5">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
@@ -10747,8 +10821,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="29">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:10" ht="30">
+      <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -10775,8 +10849,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -10788,7 +10862,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -10799,8 +10873,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.5">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
@@ -10809,8 +10883,8 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -10838,7 +10912,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="9"/>
@@ -10849,8 +10923,8 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -10878,7 +10952,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="9"/>
@@ -10889,8 +10963,8 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.5">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:10" ht="30">
+      <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -10917,8 +10991,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.5">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:10" ht="15">
+      <c r="A19" s="36"/>
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -10929,8 +11003,8 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="29">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:10" ht="30">
+      <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -10941,8 +11015,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.5">
-      <c r="A21" s="38"/>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="40"/>
       <c r="B21" s="5">
         <v>13</v>
       </c>
@@ -10953,8 +11027,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.5">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="9"/>
@@ -10965,8 +11039,8 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="14.5">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="36"/>
       <c r="B23" s="5">
         <v>14</v>
       </c>
@@ -10993,8 +11067,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.5">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -11006,7 +11080,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="9"/>
@@ -11017,8 +11091,8 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="29">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="30">
+      <c r="A26" s="36"/>
       <c r="B26" s="22">
         <v>24</v>
       </c>
@@ -11045,8 +11119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.5">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="45">
+      <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>25</v>
       </c>
@@ -11057,8 +11131,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.5">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="36"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -11067,8 +11141,8 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="29">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="36"/>
       <c r="B29" s="22">
         <v>26</v>
       </c>
@@ -11095,8 +11169,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.5">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="46" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="9"/>
@@ -11107,8 +11181,8 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="14.5">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>19</v>
       </c>
@@ -11135,8 +11209,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:10" ht="30">
+      <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>20</v>
       </c>
@@ -11147,8 +11221,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5">
-      <c r="A33" s="44"/>
+    <row r="33" spans="1:10" ht="15">
+      <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>21</v>
       </c>
@@ -11159,8 +11233,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:10" ht="15">
+      <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>24</v>
       </c>
@@ -11171,8 +11245,8 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="14.5">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:10" ht="15">
+      <c r="A35" s="46"/>
       <c r="B35" s="5">
         <v>25</v>
       </c>
@@ -11184,7 +11258,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="9"/>
@@ -11195,8 +11269,8 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="29">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:10" ht="30">
+      <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>26</v>
       </c>
@@ -11223,8 +11297,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.5">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:10" ht="15">
+      <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>27</v>
       </c>
@@ -11235,8 +11309,8 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="29">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:10" ht="30">
+      <c r="A39" s="35"/>
       <c r="B39" s="5">
         <v>28</v>
       </c>
@@ -11247,8 +11321,8 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5">
-      <c r="A40" s="33"/>
+    <row r="40" spans="1:10" ht="15">
+      <c r="A40" s="35"/>
       <c r="B40" s="5"/>
       <c r="C40" s="8" t="s">
         <v>105</v>
@@ -11257,8 +11331,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5">
-      <c r="A41" s="33"/>
+    <row r="41" spans="1:10" ht="15">
+      <c r="A41" s="35"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
         <v>15</v>
@@ -11267,8 +11341,8 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="14.5">
-      <c r="A42" s="33"/>
+    <row r="42" spans="1:10" ht="15">
+      <c r="A42" s="35"/>
       <c r="B42" s="5">
         <v>29</v>
       </c>
@@ -11295,8 +11369,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.5">
-      <c r="A43" s="33"/>
+    <row r="43" spans="1:10" ht="15">
+      <c r="A43" s="35"/>
       <c r="B43" s="5">
         <v>30</v>
       </c>
@@ -11307,41 +11381,36 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="52" spans="2:3" ht="14.5">
+    <row r="52" spans="2:3" ht="15">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.5">
+    <row r="53" spans="2:3" ht="15">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.5">
+    <row r="54" spans="2:3" ht="15">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.5">
+    <row r="55" spans="2:3" ht="15">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.5">
+    <row r="56" spans="2:3" ht="15">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.5">
+    <row r="57" spans="2:3" ht="15">
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="2:3" ht="14.5">
+    <row r="58" spans="2:3" ht="15">
       <c r="B58"/>
       <c r="C58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:F1"/>
@@ -11349,12 +11418,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{9426F53B-BB86-402D-83F7-114097EA189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F329E4-5338-46AE-96E8-2FB6DB0377AA}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" tabRatio="666" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Ver-Construção1" sheetId="3" r:id="rId5"/>
     <sheet name="Ver-Transição1" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -205,12 +204,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -374,12 +373,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -491,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -543,12 +542,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -577,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -660,7 +659,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -693,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -712,7 +711,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1063,15 +1062,12 @@
   </si>
   <si>
     <t>Não</t>
-  </si>
-  <si>
-    <t>Parcialmente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -1202,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1236,12 +1232,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1494,11 +1484,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,13 +1539,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1588,7 +1569,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1664,7 +1645,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65217391304347827</c:v>
+                  <c:v>0.82608695652173914</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2627,7 +2608,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.75</c:v>
@@ -2639,13 +2620,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.66666666666666663</c:v>
@@ -2740,7 +2721,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2752,13 +2733,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7082,6 +7063,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7344,20 +7329,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="18">
       <c r="A1" s="33" t="s">
         <v>70</v>
       </c>
@@ -7386,7 +7371,7 @@
       </c>
       <c r="B4" s="20">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.65217391304347827</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7420,23 +7405,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7536,11 +7521,11 @@
       </c>
       <c r="O3" s="24">
         <f>('Ver-Elaboração1'!$G$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="24">
         <f>('Ver-Elaboração1'!$H$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="24">
         <f>('Ver-Elaboração1'!$I$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
@@ -7696,11 +7681,11 @@
       </c>
       <c r="O7" s="24">
         <f>('Ver-Elaboração1'!$G$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="P7" s="24">
         <f>('Ver-Elaboração1'!$H$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="24">
         <f>('Ver-Elaboração1'!$I$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
@@ -7776,11 +7761,11 @@
       </c>
       <c r="O9" s="24">
         <f>('Ver-Elaboração1'!$G$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="P9" s="24">
         <f>('Ver-Elaboração1'!$H$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="24">
         <f>('Ver-Elaboração1'!$I$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
@@ -8458,24 +8443,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="84" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8504,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
@@ -8516,7 +8501,7 @@
       <c r="E3" s="42"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -8536,7 +8521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
@@ -8564,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="40"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -8620,7 +8605,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" s="36"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -8634,7 +8619,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>4</v>
@@ -8648,7 +8633,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="14.4">
       <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>5</v>
@@ -8676,7 +8661,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -8702,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="28.8">
       <c r="A14" s="36"/>
       <c r="B14" s="29">
         <v>7</v>
@@ -8716,7 +8701,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A15" s="36"/>
       <c r="B15" s="5">
         <v>8</v>
@@ -8730,7 +8715,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>9</v>
@@ -8744,7 +8729,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="14.4">
       <c r="A17" s="36"/>
       <c r="B17" s="29">
         <v>10</v>
@@ -8758,7 +8743,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="15">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="14.4">
       <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -8772,7 +8757,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="36"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
@@ -8798,12 +8783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="36"/>
-      <c r="B20" s="32">
+      <c r="B20" s="5">
         <v>12</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8812,12 +8797,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="30">
+    <row r="21" spans="1:10" ht="28.8">
       <c r="A21" s="36"/>
-      <c r="B21" s="32">
+      <c r="B21" s="5">
         <v>13</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -8826,7 +8811,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="36"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
@@ -8852,12 +8837,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30">
+    <row r="23" spans="1:10" ht="28.8">
       <c r="A23" s="36"/>
-      <c r="B23" s="32">
+      <c r="B23" s="5">
         <v>14</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -8866,7 +8851,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>15</v>
@@ -8880,7 +8865,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10" ht="14.4">
       <c r="A25" s="36"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
@@ -8906,7 +8891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30">
+    <row r="26" spans="1:10" ht="28.8">
       <c r="A26" s="36"/>
       <c r="B26" s="29">
         <v>16</v>
@@ -8920,7 +8905,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>17</v>
@@ -8934,7 +8919,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="36"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
@@ -8960,12 +8945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="28.8">
       <c r="A29" s="36"/>
-      <c r="B29" s="32">
+      <c r="B29" s="5">
         <v>21</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8974,7 +8959,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="36"/>
       <c r="B30" s="5">
         <v>22</v>
@@ -8988,7 +8973,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" ht="14.4">
       <c r="A31" s="36"/>
       <c r="B31" s="5">
         <v>23</v>
@@ -9002,7 +8987,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" ht="14.4">
       <c r="A32" s="36"/>
       <c r="B32" s="5">
         <v>24</v>
@@ -9016,7 +9001,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="36"/>
       <c r="B33" s="5">
         <v>25</v>
@@ -9030,7 +9015,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="36"/>
       <c r="B34" s="5">
         <v>26</v>
@@ -9043,7 +9028,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="30">
+    <row r="35" spans="1:10" ht="14.4">
       <c r="A35" s="36"/>
       <c r="B35" s="5">
         <v>27</v>
@@ -9057,7 +9042,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10" ht="14.4">
       <c r="A36" s="36"/>
       <c r="B36" s="5">
         <v>28</v>
@@ -9099,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="28.8">
       <c r="A38" s="35"/>
       <c r="B38" s="29">
         <v>30</v>
@@ -9113,12 +9098,12 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="35"/>
-      <c r="B39" s="32">
+      <c r="B39" s="5">
         <v>31</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -9127,12 +9112,12 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="35"/>
-      <c r="B40" s="32">
+      <c r="B40" s="5">
         <v>32</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -9141,7 +9126,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="30">
+    <row r="41" spans="1:10" ht="28.8">
       <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
@@ -9168,7 +9153,7 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D20:D21 D23:D24 D26:D27 D38:D41 D14:D18 D8:D12 D29:D36" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9179,21 +9164,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9219,10 +9204,10 @@
       <c r="E2" s="45"/>
       <c r="F2" s="21">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D42)-COUNTIF(D5:D42,"NA"))</f>
-        <v>0.65217391304347827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+        <v>0.82608695652173914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
@@ -9234,7 +9219,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9266,7 +9251,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -9296,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -9306,26 +9291,26 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="36"/>
-      <c r="B8" s="50">
+      <c r="B8" s="29">
         <v>2</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>117</v>
+      <c r="D8" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8">
         <f>COUNTIF(D8,"Sim")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f>COUNTIF(D8,"Parcialmente")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f>COUNTIF(D8,"Não")</f>
@@ -9336,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A9" s="36"/>
       <c r="B9" s="5">
         <v>3</v>
@@ -9347,14 +9332,14 @@
       <c r="D9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="8"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" s="36"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
@@ -9364,7 +9349,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="36"/>
       <c r="B11" s="29">
         <v>4</v>
@@ -9394,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="36"/>
       <c r="B12" s="29">
         <v>5</v>
@@ -9408,7 +9393,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="30">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="36"/>
       <c r="B13" s="5">
         <v>6</v>
@@ -9422,7 +9407,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="30">
+    <row r="14" spans="1:10" ht="28.8">
       <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>7</v>
@@ -9436,7 +9421,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="14.4">
       <c r="A15" s="36"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
@@ -9446,7 +9431,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="14.4">
       <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>7</v>
@@ -9488,26 +9473,26 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="28.8">
       <c r="A18" s="36"/>
-      <c r="B18" s="50">
+      <c r="B18" s="29">
         <v>9</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>117</v>
+      <c r="D18" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18">
         <f>COUNTIF(D18:D21,"Sim")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f>COUNTIF(D18:D21,"Parcialmente")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <f>COUNTIF(D18:D21,"Não")</f>
@@ -9518,21 +9503,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="36"/>
-      <c r="B19" s="50">
+      <c r="B19" s="29">
         <v>10</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>117</v>
+      <c r="D19" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>11</v>
@@ -9546,7 +9531,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="45">
+    <row r="21" spans="1:10" ht="28.8">
       <c r="A21" s="36"/>
       <c r="B21" s="5">
         <v>12</v>
@@ -9560,7 +9545,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="39" t="s">
         <v>19</v>
       </c>
@@ -9572,7 +9557,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="30">
+    <row r="23" spans="1:10" ht="28.8">
       <c r="A23" s="36"/>
       <c r="B23" s="5">
         <v>17</v>
@@ -9581,17 +9566,17 @@
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23">
         <f>COUNTIF(D23:D27,"Sim")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f>COUNTIF(D23:D27,"Parcialmente")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f>COUNTIF(D23:D27,"Não")</f>
@@ -9602,7 +9587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:10" ht="28.8">
       <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>18</v>
@@ -9616,7 +9601,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="30">
+    <row r="25" spans="1:10" ht="28.8">
       <c r="A25" s="36"/>
       <c r="B25" s="5">
         <v>19</v>
@@ -9630,7 +9615,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="36"/>
       <c r="B26" s="5">
         <v>21</v>
@@ -9644,7 +9629,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>22</v>
@@ -9658,7 +9643,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="46" t="s">
         <v>11</v>
       </c>
@@ -9670,7 +9655,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10" ht="14.4">
       <c r="A29" s="46"/>
       <c r="B29" s="5">
         <v>23</v>
@@ -9700,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="46"/>
       <c r="B30" s="5">
         <v>24</v>
@@ -9714,7 +9699,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:10" ht="28.8">
       <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>25</v>
@@ -9728,7 +9713,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" ht="14.4">
       <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>26</v>
@@ -9742,7 +9727,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>27</v>
@@ -9756,7 +9741,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>28</v>
@@ -9782,7 +9767,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="28.8">
       <c r="A36" s="35"/>
       <c r="B36" s="5">
         <v>29</v>
@@ -9812,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10" ht="14.4">
       <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>30</v>
@@ -9826,7 +9811,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="28.8">
       <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>31</v>
@@ -9840,7 +9825,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="35"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
@@ -9850,7 +9835,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="35"/>
       <c r="B40" s="5">
         <v>32</v>
@@ -9880,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
@@ -9908,10 +9893,10 @@
     <mergeCell ref="A5:A16"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17 D22 D28 D35 D39" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40:D41 D36:D38 D29:D34 D18:D21 D16 D11:D14 D8:D9 D6 D23:D27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9921,22 +9906,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
@@ -9964,7 +9949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
@@ -9976,7 +9961,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -10008,7 +9993,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -10036,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -10046,7 +10031,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="36"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -10074,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -10084,7 +10069,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10112,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10136,7 +10121,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -10146,7 +10131,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="14.4">
       <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -10186,7 +10171,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="14.4">
       <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>8</v>
@@ -10214,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15">
+    <row r="17" spans="1:10" ht="14.4">
       <c r="A17" s="39" t="s">
         <v>19</v>
       </c>
@@ -10226,7 +10211,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>11</v>
@@ -10254,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="28.8">
       <c r="A19" s="36"/>
       <c r="B19" s="5">
         <v>13</v>
@@ -10266,7 +10251,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>14</v>
@@ -10278,7 +10263,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" ht="14.4">
       <c r="A21" s="36"/>
       <c r="B21" s="5">
         <v>15</v>
@@ -10290,7 +10275,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="36"/>
       <c r="B22" s="5">
         <v>16</v>
@@ -10302,7 +10287,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10" ht="14.4">
       <c r="A23" s="39" t="s">
         <v>20</v>
       </c>
@@ -10314,7 +10299,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="30">
+    <row r="24" spans="1:10" ht="28.8">
       <c r="A24" s="36"/>
       <c r="B24" s="22">
         <v>17</v>
@@ -10342,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30">
+    <row r="25" spans="1:10" ht="28.8">
       <c r="A25" s="36"/>
       <c r="B25" s="5">
         <v>18</v>
@@ -10354,7 +10339,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="36"/>
       <c r="B26" s="5">
         <v>19</v>
@@ -10366,7 +10351,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>21</v>
@@ -10378,7 +10363,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="36"/>
       <c r="B28" s="5">
         <v>22</v>
@@ -10390,7 +10375,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10" ht="14.4">
       <c r="A29" s="46" t="s">
         <v>11</v>
       </c>
@@ -10402,7 +10387,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="46"/>
       <c r="B30" s="5">
         <v>24</v>
@@ -10430,7 +10415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30">
+    <row r="31" spans="1:10" ht="28.8">
       <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>26</v>
@@ -10442,7 +10427,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" ht="14.4">
       <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>27</v>
@@ -10454,7 +10439,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>28</v>
@@ -10466,7 +10451,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>29</v>
@@ -10490,7 +10475,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="30">
+    <row r="36" spans="1:10" ht="28.8">
       <c r="A36" s="35"/>
       <c r="B36" s="5">
         <v>30</v>
@@ -10518,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10" ht="14.4">
       <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>31</v>
@@ -10530,7 +10515,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="30">
+    <row r="38" spans="1:10" ht="28.8">
       <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>32</v>
@@ -10542,7 +10527,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10" ht="14.4">
       <c r="A39" s="35"/>
       <c r="B39" s="5"/>
       <c r="C39" s="8" t="s">
@@ -10552,7 +10537,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="35"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
@@ -10562,7 +10547,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="35"/>
       <c r="B41" s="5">
         <v>33</v>
@@ -10590,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10" ht="14.4">
       <c r="A42" s="35"/>
       <c r="B42" s="5">
         <v>34</v>
@@ -10602,53 +10587,53 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="51" spans="2:3" ht="15">
+    <row r="51" spans="2:3" ht="14.4">
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:3" ht="15">
+    <row r="52" spans="2:3" ht="14.4">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="15">
+    <row r="53" spans="2:3" ht="14.4">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="15">
+    <row r="54" spans="2:3" ht="14.4">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="15">
+    <row r="55" spans="2:3" ht="14.4">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="15">
+    <row r="56" spans="2:3" ht="14.4">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="15">
+    <row r="57" spans="2:3" ht="14.4">
       <c r="B57"/>
       <c r="C57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D15 D17 D40 D35 D29" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D36:D39 D41:D42 D18:D22 D24:D28 D30:D34" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10658,21 +10643,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10701,7 +10686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
@@ -10713,7 +10698,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:10" ht="15">
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -10745,7 +10730,7 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="36"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -10773,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -10783,7 +10768,7 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="36"/>
       <c r="B8" s="5">
         <v>2</v>
@@ -10811,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
@@ -10821,7 +10806,7 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="36"/>
       <c r="B10" s="5">
         <v>3</v>
@@ -10849,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30">
+    <row r="11" spans="1:10" ht="28.8">
       <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>4</v>
@@ -10873,7 +10858,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="15">
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
@@ -10883,7 +10868,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="14.4">
       <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>6</v>
@@ -10923,7 +10908,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="14.4">
       <c r="A16" s="36"/>
       <c r="B16" s="5">
         <v>8</v>
@@ -10963,7 +10948,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="30">
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" s="36"/>
       <c r="B18" s="5">
         <v>9</v>
@@ -10991,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="36"/>
       <c r="B19" s="5">
         <v>10</v>
@@ -11003,7 +10988,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="30">
+    <row r="20" spans="1:10" ht="28.8">
       <c r="A20" s="36"/>
       <c r="B20" s="5">
         <v>11</v>
@@ -11015,7 +11000,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" ht="14.4">
       <c r="A21" s="40"/>
       <c r="B21" s="5">
         <v>13</v>
@@ -11027,7 +11012,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="15">
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="39" t="s">
         <v>20</v>
       </c>
@@ -11039,7 +11024,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="15">
+    <row r="23" spans="1:10" ht="14.4">
       <c r="A23" s="36"/>
       <c r="B23" s="5">
         <v>14</v>
@@ -11067,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="36"/>
       <c r="B24" s="5">
         <v>15</v>
@@ -11091,7 +11076,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A26" s="36"/>
       <c r="B26" s="22">
         <v>24</v>
@@ -11119,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="45">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.2">
       <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>25</v>
@@ -11131,7 +11116,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="36"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
@@ -11141,7 +11126,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="30">
+    <row r="29" spans="1:10" ht="28.8">
       <c r="A29" s="36"/>
       <c r="B29" s="22">
         <v>26</v>
@@ -11169,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" ht="14.4">
       <c r="A30" s="46" t="s">
         <v>11</v>
       </c>
@@ -11181,7 +11166,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" ht="14.4">
       <c r="A31" s="46"/>
       <c r="B31" s="5">
         <v>19</v>
@@ -11209,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30">
+    <row r="32" spans="1:10" ht="28.8">
       <c r="A32" s="46"/>
       <c r="B32" s="5">
         <v>20</v>
@@ -11221,7 +11206,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10" ht="14.4">
       <c r="A33" s="46"/>
       <c r="B33" s="5">
         <v>21</v>
@@ -11233,7 +11218,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10" ht="14.4">
       <c r="A34" s="46"/>
       <c r="B34" s="5">
         <v>24</v>
@@ -11245,7 +11230,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10" ht="14.4">
       <c r="A35" s="46"/>
       <c r="B35" s="5">
         <v>25</v>
@@ -11269,7 +11254,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="30">
+    <row r="37" spans="1:10" ht="28.8">
       <c r="A37" s="35"/>
       <c r="B37" s="5">
         <v>26</v>
@@ -11297,7 +11282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10" ht="14.4">
       <c r="A38" s="35"/>
       <c r="B38" s="5">
         <v>27</v>
@@ -11309,7 +11294,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="30">
+    <row r="39" spans="1:10" ht="28.8">
       <c r="A39" s="35"/>
       <c r="B39" s="5">
         <v>28</v>
@@ -11321,7 +11306,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10" ht="14.4">
       <c r="A40" s="35"/>
       <c r="B40" s="5"/>
       <c r="C40" s="8" t="s">
@@ -11331,7 +11316,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10" ht="14.4">
       <c r="A41" s="35"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
@@ -11341,7 +11326,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="15">
+    <row r="42" spans="1:10" ht="14.4">
       <c r="A42" s="35"/>
       <c r="B42" s="5">
         <v>29</v>
@@ -11369,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15">
+    <row r="43" spans="1:10" ht="14.4">
       <c r="A43" s="35"/>
       <c r="B43" s="5">
         <v>30</v>
@@ -11381,36 +11366,41 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="52" spans="2:3" ht="15">
+    <row r="52" spans="2:3" ht="14.4">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="15">
+    <row r="53" spans="2:3" ht="14.4">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="15">
+    <row r="54" spans="2:3" ht="14.4">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="15">
+    <row r="55" spans="2:3" ht="14.4">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="15">
+    <row r="56" spans="2:3" ht="14.4">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="15">
+    <row r="57" spans="2:3" ht="14.4">
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="2:3" ht="15">
+    <row r="58" spans="2:3" ht="14.4">
       <c r="B58"/>
       <c r="C58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:F1"/>
@@ -11418,17 +11408,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A25:A29"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25 D17 D15 D22 D41 D36 D30 D28" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D8 D10:D12 D14 D16 D23:D24 D26:D27 D29 D31:D35 D42:D43 D18:D21 D37:D40" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Sim,Parcialmente,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>

--- a/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
+++ b/6.Gerenciamento de Projeto/EvT - Checklist_Verificacao_de_Projeto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{9426F53B-BB86-402D-83F7-114097EA189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F329E4-5338-46AE-96E8-2FB6DB0377AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7CC7D2-7AE8-4D24-A49B-1D8FF4C3575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="666" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="666" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -711,7 +713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="116">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1059,9 +1061,6 @@
   </si>
   <si>
     <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1483,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1538,6 +1533,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1645,7 +1646,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82608695652173914</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2608,10 +2609,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2620,22 +2621,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,7 +2832,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2855,13 +2856,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,22 +2951,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7063,10 +7064,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7336,17 +7333,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" ht="18.5">
+      <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="18" t="s">
@@ -7369,9 +7366,9 @@
       <c r="A4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="20" t="e">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.82608695652173914</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7412,16 +7409,16 @@
       <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
+    <col min="6" max="6" width="6.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -7479,21 +7476,21 @@
       <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P2" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R2" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$6/SUM('Ver-Elaboração1'!$G$6:'Ver-Elaboração1'!$J$6))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -7519,21 +7516,21 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>1</v>
-      </c>
-      <c r="P3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$8/SUM('Ver-Elaboração1'!$G$8:'Ver-Elaboração1'!$J$8))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -7559,21 +7556,21 @@
       <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>0.75</v>
-      </c>
-      <c r="P4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$11/SUM('Ver-Elaboração1'!$G$11:'Ver-Elaboração1'!$J$11))</f>
-        <v>0.25</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -7599,21 +7596,21 @@
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$16/SUM('Ver-Elaboração1'!$G$16:'Ver-Elaboração1'!$J$16))</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -7679,21 +7676,21 @@
       <c r="N7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0.75</v>
-      </c>
-      <c r="P7" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$18/SUM('Ver-Elaboração1'!$G$18:'Ver-Elaboração1'!$J$18))</f>
-        <v>0.25</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -7759,21 +7756,21 @@
       <c r="N9" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0.6</v>
-      </c>
-      <c r="P9" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$23/SUM('Ver-Elaboração1'!$G$23:'Ver-Elaboração1'!$J$23))</f>
-        <v>0.4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7799,21 +7796,21 @@
       <c r="N10" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P10" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R10" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$29/SUM('Ver-Elaboração1'!$G$29:'Ver-Elaboração1'!$J$29))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -7839,21 +7836,21 @@
       <c r="N11" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>1</v>
-      </c>
-      <c r="P11" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$36/SUM('Ver-Elaboração1'!$G$36:'Ver-Elaboração1'!$J$36))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -7879,21 +7876,21 @@
       <c r="N12" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="24">
+      <c r="O12" s="24" t="e">
         <f>('Ver-Elaboração1'!$G$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" s="24" t="e">
         <f>('Ver-Elaboração1'!$H$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="24" t="e">
         <f>('Ver-Elaboração1'!$I$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="24">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" s="24" t="e">
         <f>('Ver-Elaboração1'!$J$40/SUM('Ver-Elaboração1'!$G$40:'Ver-Elaboração1'!$J$40))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -8446,62 +8443,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
     <col min="3" max="3" width="84" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.81640625" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D41)-COUNTIF(D5:D41,"NA"))</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -8521,8 +8518,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:10" ht="14.5">
+      <c r="A5" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="9"/>
@@ -8549,8 +8546,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:10" ht="14.5">
+      <c r="A6" s="38"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -8564,7 +8561,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="9"/>
@@ -8592,7 +8589,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="30">
         <v>2</v>
       </c>
@@ -8605,8 +8602,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:10" ht="14.5">
+      <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -8619,8 +8616,8 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:10" ht="14.5">
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -8633,8 +8630,8 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="14.4">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="14.5">
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -8648,7 +8645,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>6</v>
       </c>
@@ -8661,8 +8658,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:10" ht="14.5">
+      <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>3</v>
@@ -8687,8 +8684,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:10" ht="29">
+      <c r="A14" s="34"/>
       <c r="B14" s="29">
         <v>7</v>
       </c>
@@ -8701,8 +8698,8 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A15" s="34"/>
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -8715,8 +8712,8 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -8729,8 +8726,8 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="14.4">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A17" s="34"/>
       <c r="B17" s="29">
         <v>10</v>
       </c>
@@ -8743,8 +8740,8 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="14.4">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="14.5">
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -8757,8 +8754,8 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="14.4">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:10" ht="14.5">
+      <c r="A19" s="34"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
         <v>97</v>
@@ -8783,12 +8780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="5">
+    <row r="20" spans="1:10" ht="29">
+      <c r="A20" s="34"/>
+      <c r="B20" s="49">
         <v>12</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="48" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -8797,12 +8794,12 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="5">
+    <row r="21" spans="1:10" ht="29">
+      <c r="A21" s="34"/>
+      <c r="B21" s="49">
         <v>13</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="48" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -8811,8 +8808,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="A22" s="34"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10" t="s">
         <v>4</v>
@@ -8837,12 +8834,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="5">
+    <row r="23" spans="1:10" ht="29">
+      <c r="A23" s="34"/>
+      <c r="B23" s="49">
         <v>14</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -8851,8 +8848,8 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:10" ht="14.5">
+      <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -8865,8 +8862,8 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:10" ht="14.5">
+      <c r="A25" s="34"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10" t="s">
         <v>36</v>
@@ -8891,8 +8888,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:10" ht="29">
+      <c r="A26" s="34"/>
       <c r="B26" s="29">
         <v>16</v>
       </c>
@@ -8905,8 +8902,8 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:10" ht="14.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>17</v>
       </c>
@@ -8919,8 +8916,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:10" ht="14.5">
+      <c r="A28" s="34"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
         <v>13</v>
@@ -8945,12 +8942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28.8">
-      <c r="A29" s="36"/>
-      <c r="B29" s="5">
+    <row r="29" spans="1:10" ht="29">
+      <c r="A29" s="34"/>
+      <c r="B29" s="49">
         <v>21</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="48" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -8959,8 +8956,8 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:10" ht="14.5">
+      <c r="A30" s="34"/>
       <c r="B30" s="5">
         <v>22</v>
       </c>
@@ -8973,8 +8970,8 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:10" ht="14.5">
+      <c r="A31" s="34"/>
       <c r="B31" s="5">
         <v>23</v>
       </c>
@@ -8987,8 +8984,8 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:10" ht="14.5">
+      <c r="A32" s="34"/>
       <c r="B32" s="5">
         <v>24</v>
       </c>
@@ -9001,8 +8998,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:10" ht="14.5">
+      <c r="A33" s="34"/>
       <c r="B33" s="5">
         <v>25</v>
       </c>
@@ -9015,8 +9012,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
-      <c r="A34" s="36"/>
+    <row r="34" spans="1:10" ht="29">
+      <c r="A34" s="34"/>
       <c r="B34" s="5">
         <v>26</v>
       </c>
@@ -9028,8 +9025,8 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:10" ht="29">
+      <c r="A35" s="34"/>
       <c r="B35" s="5">
         <v>27</v>
       </c>
@@ -9042,8 +9039,8 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="14.4">
-      <c r="A36" s="36"/>
+    <row r="36" spans="1:10" ht="14.5">
+      <c r="A36" s="34"/>
       <c r="B36" s="5">
         <v>28</v>
       </c>
@@ -9057,7 +9054,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="9"/>
@@ -9084,8 +9081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10" ht="29">
+      <c r="A38" s="33"/>
       <c r="B38" s="29">
         <v>30</v>
       </c>
@@ -9098,12 +9095,12 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
-      <c r="A39" s="35"/>
-      <c r="B39" s="5">
+    <row r="39" spans="1:10" ht="14.5">
+      <c r="A39" s="33"/>
+      <c r="B39" s="49">
         <v>31</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="48" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -9112,12 +9109,12 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
-      <c r="A40" s="35"/>
-      <c r="B40" s="5">
+    <row r="40" spans="1:10" ht="14.5">
+      <c r="A40" s="33"/>
+      <c r="B40" s="49">
         <v>32</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -9126,8 +9123,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="28.8">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:10" ht="29">
+      <c r="A41" s="33"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
@@ -9167,59 +9164,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
     <col min="3" max="3" width="68" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="21">
+      <c r="E2" s="43"/>
+      <c r="F2" s="21" t="e">
         <f>COUNTIF(D5:D41,"Sim")/(COUNTA(D5:D42)-COUNTIF(D5:D42,"NA"))</f>
-        <v>0.82608695652173914</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9240,7 +9237,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -9251,17 +9248,15 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:10" ht="14.5">
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6">
@@ -9274,15 +9269,15 @@
       </c>
       <c r="I6">
         <f>COUNTIF(D6,"Não")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>COUNTIF(D6,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:10" ht="14.5">
+      <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -9291,22 +9286,20 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A8" s="36"/>
-      <c r="B8" s="29">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A8" s="34"/>
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>115</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8">
         <f>COUNTIF(D8,"Sim")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f>COUNTIF(D8,"Parcialmente")</f>
@@ -9321,26 +9314,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:10" ht="14.5">
+      <c r="A10" s="34"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>97</v>
@@ -9349,22 +9340,20 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="29">
+    <row r="11" spans="1:10" ht="29">
+      <c r="A11" s="34"/>
+      <c r="B11" s="22">
         <v>4</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11">
         <f>COUNTIF(D11:D14,"Sim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f>COUNTIF(D11:D14,"Parcialmente")</f>
@@ -9376,53 +9365,47 @@
       </c>
       <c r="J11">
         <f>COUNTIF(D11:D14,"NA")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29">
+      <c r="A12" s="34"/>
+      <c r="B12" s="22">
         <v>5</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:10" ht="14.5">
+      <c r="A13" s="34"/>
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:10" ht="29">
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:10" ht="14.5">
+      <c r="A15" s="34"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
         <v>4</v>
@@ -9431,17 +9414,15 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:10" ht="14.5">
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>7</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16">
@@ -9458,11 +9439,11 @@
       </c>
       <c r="J16">
         <f>COUNTIF(D16,"NA")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="9"/>
@@ -9473,22 +9454,20 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="28.8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="29">
+    <row r="18" spans="1:10" ht="29">
+      <c r="A18" s="34"/>
+      <c r="B18" s="5">
         <v>9</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>115</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18">
         <f>COUNTIF(D18:D21,"Sim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <f>COUNTIF(D18:D21,"Parcialmente")</f>
@@ -9500,53 +9479,47 @@
       </c>
       <c r="J18">
         <f>COUNTIF(D18:D21,"NA")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="28.8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="29">
+      <c r="A19" s="34"/>
+      <c r="B19" s="22">
         <v>10</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>115</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="28.8">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:10" ht="29">
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>12</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="A22" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9"/>
@@ -9557,22 +9530,20 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="28.8">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:10" ht="29">
+      <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>17</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23">
         <f>COUNTIF(D23:D27,"Sim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f>COUNTIF(D23:D27,"Parcialmente")</f>
@@ -9584,67 +9555,59 @@
       </c>
       <c r="J23">
         <f>COUNTIF(D23:D27,"NA")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.8">
-      <c r="A24" s="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29">
+      <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>18</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="28.8">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:10" ht="29">
+      <c r="A25" s="34"/>
       <c r="B25" s="5">
         <v>19</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D25" s="3"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:10" ht="14.5">
+      <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>21</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:10" ht="14.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>22</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D27" s="3"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:10" ht="14.5">
+      <c r="A28" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="9"/>
@@ -9655,22 +9618,20 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4">
-      <c r="A29" s="46"/>
+    <row r="29" spans="1:10" ht="14.5">
+      <c r="A29" s="44"/>
       <c r="B29" s="5">
         <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29">
         <f>COUNTIF(D29:D34,"Sim")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f>COUNTIF(D29:D34,"Parcialmente")</f>
@@ -9678,85 +9639,75 @@
       </c>
       <c r="I29">
         <f>COUNTIF(D29:D34,"Não")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f>COUNTIF(D29:D34,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:10" ht="14.5">
+      <c r="A30" s="44"/>
       <c r="B30" s="5">
         <v>24</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:10" ht="28.8">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:10" ht="29">
+      <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:10" ht="14.5">
+      <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:10" ht="14.5">
+      <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>27</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D33" s="3"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:10" ht="14.5">
+      <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>28</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D34" s="3"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="9"/>
@@ -9767,22 +9718,20 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:10" ht="29">
+      <c r="A36" s="33"/>
       <c r="B36" s="5">
         <v>29</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36">
         <f>COUNTIF(D36:D38,"Sim")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f>COUNTIF(D36:D38,"Parcialmente")</f>
@@ -9797,36 +9746,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:10" ht="14.5">
+      <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10" ht="29">
+      <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:10" ht="14.5">
+      <c r="A39" s="33"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10" t="s">
         <v>15</v>
@@ -9835,22 +9780,20 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:10" ht="14.5">
+      <c r="A40" s="33"/>
       <c r="B40" s="5">
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40">
         <f>COUNTIF(D40:D41,"Sim")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f>COUNTIF(D40:D41,"Parcialmente")</f>
@@ -9858,24 +9801,22 @@
       </c>
       <c r="I40">
         <f>COUNTIF(D40:D41,"Não")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <f>COUNTIF(D40:D41,"NA")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:10" ht="14.5">
+      <c r="A41" s="33"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
@@ -9913,55 +9854,55 @@
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="10" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
+    <col min="7" max="10" width="9.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="e">
         <f>COUNTIF(D5:D42,"Sim")/(COUNTA(D5:D41)-COUNTIF(D5:D41,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -9982,7 +9923,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -9993,8 +9934,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:10" ht="14.5">
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -10021,8 +9962,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:10" ht="14.5">
+      <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -10031,8 +9972,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -10059,8 +10000,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:10" ht="14.5">
+      <c r="A9" s="34"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>97</v>
@@ -10069,8 +10010,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -10097,8 +10038,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:10" ht="29">
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -10110,7 +10051,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -10121,8 +10062,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:10" ht="14.5">
+      <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
@@ -10131,8 +10072,8 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:10" ht="14.5">
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -10160,7 +10101,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="9"/>
@@ -10171,8 +10112,8 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:10" ht="14.5">
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -10199,8 +10140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:10" ht="14.5">
+      <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="9"/>
@@ -10211,8 +10152,8 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:10" ht="14.5">
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -10239,8 +10180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:10" ht="29">
+      <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>13</v>
       </c>
@@ -10251,8 +10192,8 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:10" ht="29">
+      <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>14</v>
       </c>
@@ -10263,8 +10204,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:10" ht="14.5">
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>15</v>
       </c>
@@ -10275,8 +10216,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="A22" s="34"/>
       <c r="B22" s="5">
         <v>16</v>
       </c>
@@ -10287,8 +10228,8 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:10" ht="14.5">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="9"/>
@@ -10299,8 +10240,8 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="28.8">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:10" ht="29">
+      <c r="A24" s="34"/>
       <c r="B24" s="22">
         <v>17</v>
       </c>
@@ -10327,8 +10268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.8">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:10" ht="29">
+      <c r="A25" s="34"/>
       <c r="B25" s="5">
         <v>18</v>
       </c>
@@ -10339,8 +10280,8 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:10" ht="14.5">
+      <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>19</v>
       </c>
@@ -10351,8 +10292,8 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:10" ht="14.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>21</v>
       </c>
@@ -10363,8 +10304,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:10" ht="14.5">
+      <c r="A28" s="34"/>
       <c r="B28" s="5">
         <v>22</v>
       </c>
@@ -10375,8 +10316,8 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="14.4">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:10" ht="14.5">
+      <c r="A29" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="9"/>
@@ -10387,8 +10328,8 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:10" ht="14.5">
+      <c r="A30" s="44"/>
       <c r="B30" s="5">
         <v>24</v>
       </c>
@@ -10415,8 +10356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="28.8">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:10" ht="29">
+      <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>26</v>
       </c>
@@ -10427,8 +10368,8 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:10" ht="14.5">
+      <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>27</v>
       </c>
@@ -10439,8 +10380,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:10" ht="14.5">
+      <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>28</v>
       </c>
@@ -10451,8 +10392,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:10" ht="14.5">
+      <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>29</v>
       </c>
@@ -10464,7 +10405,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="9"/>
@@ -10475,8 +10416,8 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:10" ht="28.8">
-      <c r="A36" s="35"/>
+    <row r="36" spans="1:10" ht="29">
+      <c r="A36" s="33"/>
       <c r="B36" s="5">
         <v>30</v>
       </c>
@@ -10503,8 +10444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:10" ht="14.5">
+      <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>31</v>
       </c>
@@ -10515,8 +10456,8 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="28.8">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10" ht="29">
+      <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>32</v>
       </c>
@@ -10527,8 +10468,8 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="14.4">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:10" ht="14.5">
+      <c r="A39" s="33"/>
       <c r="B39" s="5"/>
       <c r="C39" s="8" t="s">
         <v>105</v>
@@ -10537,8 +10478,8 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:10" ht="14.5">
+      <c r="A40" s="33"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10" t="s">
         <v>15</v>
@@ -10547,8 +10488,8 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:10" ht="14.5">
+      <c r="A41" s="33"/>
       <c r="B41" s="5">
         <v>33</v>
       </c>
@@ -10575,8 +10516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:10" ht="14.5">
+      <c r="A42" s="33"/>
       <c r="B42" s="5">
         <v>34</v>
       </c>
@@ -10587,31 +10528,31 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="51" spans="2:3" ht="14.4">
+    <row r="51" spans="2:3" ht="14.5">
       <c r="B51"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:3" ht="14.4">
+    <row r="52" spans="2:3" ht="14.5">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.4">
+    <row r="53" spans="2:3" ht="14.5">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.4">
+    <row r="54" spans="2:3" ht="14.5">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.4">
+    <row r="55" spans="2:3" ht="14.5">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.4">
+    <row r="56" spans="2:3" ht="14.5">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.4">
+    <row r="57" spans="2:3" ht="14.5">
       <c r="B57"/>
       <c r="C57"/>
     </row>
@@ -10650,55 +10591,55 @@
       <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="5.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="71.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" customWidth="1"/>
     <col min="7" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="45"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="21" t="e">
         <f>COUNTIF(D5:D43,"Sim")/(COUNTA(D5:D43)-COUNTIF(D5:D43,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -10719,7 +10660,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -10730,8 +10671,8 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:10" ht="14.5">
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -10758,8 +10699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:10" ht="14.5">
+      <c r="A7" s="34"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
         <v>3</v>
@@ -10768,8 +10709,8 @@
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -10796,8 +10737,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:10" ht="14.5">
+      <c r="A9" s="34"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
@@ -10806,8 +10747,8 @@
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:10" ht="29">
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -10834,8 +10775,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:10" ht="29">
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -10847,7 +10788,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -10858,8 +10799,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:10" ht="14.5">
+      <c r="A13" s="34"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>4</v>
@@ -10868,8 +10809,8 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:10" ht="14.5">
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -10897,7 +10838,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="9"/>
@@ -10908,8 +10849,8 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:10" ht="14.5">
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -10937,7 +10878,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="9"/>
@@ -10948,8 +10889,8 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:10" ht="14.4">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:10" ht="14.5">
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>9</v>
       </c>
@@ -10976,8 +10917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:10" ht="14.5">
+      <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>10</v>
       </c>
@@ -10988,8 +10929,8 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="28.8">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:10" ht="29">
+      <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>11</v>
       </c>
@@ -11000,8 +10941,8 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4">
-      <c r="A21" s="40"/>
+    <row r="21" spans="1:10" ht="14.5">
+      <c r="A21" s="38"/>
       <c r="B21" s="5">
         <v>13</v>
       </c>
@@ -11012,8 +10953,8 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:10" ht="14.4">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:10" ht="14.5">
+      <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="9"/>
@@ -11024,8 +10965,8 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="14.4">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:10" ht="14.5">
+      <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>14</v>
       </c>
@@ -11052,8 +10993,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:10" ht="14.5">
+      <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -11065,7 +11006,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="37" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="9"/>
@@ -11076,8 +11017,8 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="28.8">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="29">
+      <c r="A26" s="34"/>
       <c r="B26" s="22">
         <v>24</v>
       </c>
@@ -11104,8 +11045,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.2">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.5">
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>25</v>
       </c>
@@ -11116,8 +11057,8 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="14.4">
-      <c r="A28" s="36"/>
+    <row r="28" spans="1:10" ht="14.5">
+      <c r="A28" s="34"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
@@ -11126,8 +11067,8 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:10" ht="28.8">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:10" ht="29">
+      <c r="A29" s="34"/>
       <c r="B29" s="22">
         <v>26</v>
       </c>
@@ -11154,8 +11095,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4">
-      <c r="A30" s="46" t="s">
+    <row r="30" spans="1:10" ht="14.5">
+      <c r="A30" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="9"/>
@@ -11166,8 +11107,8 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:10" ht="14.4">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:10" ht="14.5">
+      <c r="A31" s="44"/>
       <c r="B31" s="5">
         <v>19</v>
       </c>
@@ -11194,8 +11135,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="28.8">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:10" ht="29">
+      <c r="A32" s="44"/>
       <c r="B32" s="5">
         <v>20</v>
       </c>
@@ -11206,8 +11147,8 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="14.4">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:10" ht="14.5">
+      <c r="A33" s="44"/>
       <c r="B33" s="5">
         <v>21</v>
       </c>
@@ -11218,8 +11159,8 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="14.4">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:10" ht="14.5">
+      <c r="A34" s="44"/>
       <c r="B34" s="5">
         <v>24</v>
       </c>
@@ -11230,8 +11171,8 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="14.4">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:10" ht="14.5">
+      <c r="A35" s="44"/>
       <c r="B35" s="5">
         <v>25</v>
       </c>
@@ -11243,7 +11184,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="32" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="9"/>
@@ -11254,8 +11195,8 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="28.8">
-      <c r="A37" s="35"/>
+    <row r="37" spans="1:10" ht="29">
+      <c r="A37" s="33"/>
       <c r="B37" s="5">
         <v>26</v>
       </c>
@@ -11282,8 +11223,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:10" ht="14.5">
+      <c r="A38" s="33"/>
       <c r="B38" s="5">
         <v>27</v>
       </c>
@@ -11294,8 +11235,8 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="28.8">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:10" ht="29">
+      <c r="A39" s="33"/>
       <c r="B39" s="5">
         <v>28</v>
       </c>
@@ -11306,8 +11247,8 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:10" ht="14.4">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:10" ht="14.5">
+      <c r="A40" s="33"/>
       <c r="B40" s="5"/>
       <c r="C40" s="8" t="s">
         <v>105</v>
@@ -11316,8 +11257,8 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:10" ht="14.4">
-      <c r="A41" s="35"/>
+    <row r="41" spans="1:10" ht="14.5">
+      <c r="A41" s="33"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10" t="s">
         <v>15</v>
@@ -11326,8 +11267,8 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="14.4">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:10" ht="14.5">
+      <c r="A42" s="33"/>
       <c r="B42" s="5">
         <v>29</v>
       </c>
@@ -11354,8 +11295,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:10" ht="14.5">
+      <c r="A43" s="33"/>
       <c r="B43" s="5">
         <v>30</v>
       </c>
@@ -11366,31 +11307,31 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="52" spans="2:3" ht="14.4">
+    <row r="52" spans="2:3" ht="14.5">
       <c r="B52"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:3" ht="14.4">
+    <row r="53" spans="2:3" ht="14.5">
       <c r="B53"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:3" ht="14.4">
+    <row r="54" spans="2:3" ht="14.5">
       <c r="B54"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:3" ht="14.4">
+    <row r="55" spans="2:3" ht="14.5">
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="2:3" ht="14.4">
+    <row r="56" spans="2:3" ht="14.5">
       <c r="B56"/>
       <c r="C56"/>
     </row>
-    <row r="57" spans="2:3" ht="14.4">
+    <row r="57" spans="2:3" ht="14.5">
       <c r="B57"/>
       <c r="C57"/>
     </row>
-    <row r="58" spans="2:3" ht="14.4">
+    <row r="58" spans="2:3" ht="14.5">
       <c r="B58"/>
       <c r="C58"/>
     </row>
